--- a/task1/results/graphs.xlsx
+++ b/task1/results/graphs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
   <si>
     <t>10^4</t>
   </si>
@@ -1909,8 +1909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2381,7 +2381,30 @@
         <v>43.487400000000001</v>
       </c>
     </row>
+    <row r="31" spans="1:7">
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="32" spans="1:7">
+      <c r="A32">
+        <v>2</v>
+      </c>
       <c r="B32">
         <v>0.69745299999999999</v>
       </c>
@@ -2401,7 +2424,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>4</v>
+      </c>
       <c r="B33">
         <v>0.52670499999999998</v>
       </c>
@@ -2421,7 +2447,10 @@
         <v>0.94627899999999998</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>6</v>
+      </c>
       <c r="B34">
         <v>0.336115</v>
       </c>
@@ -2441,7 +2470,10 @@
         <v>0.90104099999999998</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>8</v>
+      </c>
       <c r="B35">
         <v>0.178314</v>
       </c>
@@ -2461,7 +2493,10 @@
         <v>0.63929400000000003</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>12</v>
+      </c>
       <c r="B36">
         <v>7.6723E-2</v>
       </c>
